--- a/project/excel/linkml_assembly_submission.xlsx
+++ b/project/excel/linkml_assembly_submission.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kit" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sequence" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submitter" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -567,4 +569,86 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fragment_order</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>submitters</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sequences</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>assemblies</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/linkml_assembly_submission.xlsx
+++ b/project/excel/linkml_assembly_submission.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,16 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>addgene_url</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -577,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +609,11 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>fragment_order</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>template_file</t>
         </is>
       </c>
     </row>

--- a/project/excel/linkml_assembly_submission.xlsx
+++ b/project/excel/linkml_assembly_submission.xlsx
@@ -11,8 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kit" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sequence" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submitter" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Primer" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,6 +588,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -622,13 +654,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +694,11 @@
           <t>assemblies</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>primers</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/excel/linkml_assembly_submission.xlsx
+++ b/project/excel/linkml_assembly_submission.xlsx
@@ -12,8 +12,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sequence" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submitter" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Primer" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrimerPair" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -630,22 +631,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>category</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>forward_primer</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>fragment_order</t>
+          <t>reverse_primer</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>template_file</t>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -660,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +672,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fragment_order</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>template_file</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>submitters</t>
         </is>
       </c>
@@ -697,6 +739,11 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>primers</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>primer_pairs</t>
         </is>
       </c>
     </row>

--- a/project/excel/linkml_assembly_submission.xlsx
+++ b/project/excel/linkml_assembly_submission.xlsx
@@ -10,11 +10,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Category" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kit" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sequence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submitter" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Primer" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrimerPair" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AddGenePlasmid" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submitter" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oligo" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OligoPair" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assembly" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,32 +514,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>plasmid_name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>addgene_id</t>
+          <t>category</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>resistance</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -548,6 +539,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>addgene_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>resistance</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -583,13 +630,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +652,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>sequence</t>
         </is>
       </c>
@@ -614,7 +666,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>forward_oligo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>reverse_oligo</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -631,22 +734,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>forward_primer</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>reverse_primer</t>
+          <t>fragment_order</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>template_file</t>
         </is>
       </c>
     </row>
@@ -655,13 +758,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,62 +775,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>submitters</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>kit</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>fragment_order</t>
+          <t>sequences</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>template_file</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>submitters</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>kit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>categories</t>
         </is>
       </c>
@@ -738,12 +800,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>primers</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>primer_pairs</t>
+          <t>oligos</t>
         </is>
       </c>
     </row>
